--- a/Test circuits/Rnetwork/Rnetwork.xlsx
+++ b/Test circuits/Rnetwork/Rnetwork.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adare\OneDrive\Documentos\Maestria Cinvestav\Microondas\proyecto\Circuitos de prueba\Rnetwork\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB4EA1FD-BB7B-4C2E-962A-1C4682D2A21C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842A8D4A-FC68-4AD7-9082-9945111671D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{123A8AA9-D291-44EE-A285-0562C51A2FBD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Nodo inicial</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>N0</t>
+  </si>
+  <si>
+    <t>BL</t>
+  </si>
+  <si>
+    <t>Operating Freq</t>
   </si>
 </sst>
 </file>
@@ -468,10 +474,13 @@
   <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="7" max="7" width="12.53125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
@@ -489,6 +498,12 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
@@ -506,6 +521,12 @@
       <c r="E2" s="4">
         <v>10</v>
       </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
@@ -523,6 +544,12 @@
       <c r="E3" s="1">
         <v>5</v>
       </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
@@ -540,6 +567,12 @@
       <c r="E4" s="1">
         <v>10</v>
       </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
@@ -557,6 +590,12 @@
       <c r="E5" s="1">
         <v>5</v>
       </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
       <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.45">
@@ -575,6 +614,12 @@
       <c r="E6" s="1">
         <v>10</v>
       </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
@@ -592,6 +637,12 @@
       <c r="E7" s="1">
         <v>5</v>
       </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
@@ -608,6 +659,12 @@
       </c>
       <c r="E8" s="1">
         <v>10</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.45">
